--- a/grupos/4ALCM - Estadisticos 2020.xlsx
+++ b/grupos/4ALCM - Estadisticos 2020.xlsx
@@ -3767,6 +3767,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4163,7 +4164,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4825,6 +4827,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4ALCM - Estadisticos 2020.xlsx
+++ b/grupos/4ALCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="158">
   <si>
     <t>Materia</t>
   </si>
@@ -224,6 +224,27 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>AYOCTLE</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>BONOLA</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
+    <t>COUDER</t>
+  </si>
+  <si>
     <t>CABRERA</t>
   </si>
   <si>
@@ -233,9 +254,18 @@
     <t>GARCIA</t>
   </si>
   <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
@@ -245,51 +275,165 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
     <t>MEZA</t>
   </si>
   <si>
     <t>MIXCOAC</t>
   </si>
   <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
     <t>ZUÑIGA</t>
   </si>
   <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>BERUDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
     <t>JUAREZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>SILVERIO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
   </si>
   <si>
     <t>RICO</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>ONOFRE</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
   </si>
   <si>
     <t>PALOMARES</t>
   </si>
   <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CARTEÑO</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IAN ISSAID</t>
+  </si>
+  <si>
+    <t>EMMA NOHEMI</t>
+  </si>
+  <si>
+    <t>MAYTE DOLORES</t>
+  </si>
+  <si>
+    <t>MICHELL</t>
+  </si>
+  <si>
+    <t>YULIANA</t>
+  </si>
+  <si>
     <t>AYELEN</t>
   </si>
   <si>
     <t>ADRIANA ISABEL</t>
   </si>
   <si>
+    <t>KARIME GUADALUPE</t>
+  </si>
+  <si>
+    <t>MICAELA</t>
+  </si>
+  <si>
     <t>MARCO ANTONIO</t>
   </si>
   <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
     <t>MARIANA JOSELIN</t>
   </si>
   <si>
+    <t>JESE YAEL</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
     <t>FRANCISCO EMMANUEL</t>
   </si>
   <si>
@@ -299,199 +443,55 @@
     <t>CINTHIA</t>
   </si>
   <si>
+    <t>JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>MARTHA</t>
+  </si>
+  <si>
     <t>KARLA YAMILE</t>
   </si>
   <si>
     <t>ELYDEN JULYSSA</t>
   </si>
   <si>
+    <t>DIEGO MIGUEL</t>
+  </si>
+  <si>
+    <t>JAXIRY JAZMIN</t>
+  </si>
+  <si>
+    <t>KATHERINE AZUL</t>
+  </si>
+  <si>
+    <t>ABRIL CITLALLI</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>DANNA ARLETTE</t>
+  </si>
+  <si>
     <t>KAROL</t>
   </si>
   <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>ESTEFANIA</t>
+  </si>
+  <si>
     <t>MARLENE</t>
-  </si>
-  <si>
-    <t>AYOCTLE</t>
-  </si>
-  <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>BONOLA</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>COYOHUA</t>
-  </si>
-  <si>
-    <t>COUDER</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>TEHUINTLE</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>BERUDEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
-    <t>SILVERIO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>ONOFRE</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>CARTEÑO</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>IAN ISSAID</t>
-  </si>
-  <si>
-    <t>EMMA NOHEMI</t>
-  </si>
-  <si>
-    <t>MAYTE DOLORES</t>
-  </si>
-  <si>
-    <t>MICHELL</t>
-  </si>
-  <si>
-    <t>YULIANA</t>
-  </si>
-  <si>
-    <t>KARIME GUADALUPE</t>
-  </si>
-  <si>
-    <t>MICAELA</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>JESE YAEL</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL</t>
-  </si>
-  <si>
-    <t>MARTHA</t>
-  </si>
-  <si>
-    <t>DIEGO MIGUEL</t>
-  </si>
-  <si>
-    <t>JAXIRY JAZMIN</t>
-  </si>
-  <si>
-    <t>KATHERINE AZUL</t>
-  </si>
-  <si>
-    <t>ABRIL CITLALLI</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>LIZETH</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>DANNA ARLETTE</t>
-  </si>
-  <si>
-    <t>RUTH</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>ESTEFANIA</t>
   </si>
 </sst>
 </file>
@@ -990,7 +990,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -999,13 +999,13 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>-1</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1058,7 +1058,7 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -1067,13 +1067,13 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>-1</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1126,7 +1126,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -1135,13 +1135,13 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>-1</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1194,7 +1194,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>-1</v>
@@ -1203,13 +1203,13 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1262,7 +1262,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1271,13 +1271,13 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1330,7 +1330,7 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>-1</v>
@@ -1339,13 +1339,13 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>-1</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1398,7 +1398,7 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -1407,13 +1407,13 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1466,7 +1466,7 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -1475,13 +1475,13 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>-1</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1534,7 +1534,7 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1543,13 +1543,13 @@
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>-1</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1602,7 +1602,7 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1611,13 +1611,13 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1670,7 +1670,7 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1679,13 +1679,13 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N14">
         <v>-1</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1738,7 +1738,7 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -1747,13 +1747,13 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>-1</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1806,7 +1806,7 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
         <v>-1</v>
@@ -1815,13 +1815,13 @@
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -1874,7 +1874,7 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>-1</v>
@@ -1883,13 +1883,13 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>-1</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -1942,7 +1942,7 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -1951,13 +1951,13 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>-1</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -2010,7 +2010,7 @@
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K19">
         <v>-1</v>
@@ -2019,13 +2019,13 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>-1</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2078,7 +2078,7 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>-1</v>
@@ -2087,13 +2087,13 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>-1</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2146,7 +2146,7 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>-1</v>
@@ -2155,13 +2155,13 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>-1</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2214,7 +2214,7 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K22">
         <v>-1</v>
@@ -2223,13 +2223,13 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>-1</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2270,19 +2270,19 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <v>-1</v>
@@ -2291,13 +2291,13 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>-1</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2350,7 +2350,7 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -2359,13 +2359,13 @@
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>-1</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2418,7 +2418,7 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
         <v>-1</v>
@@ -2427,13 +2427,13 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>-1</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2474,19 +2474,19 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K26">
         <v>-1</v>
@@ -2495,13 +2495,13 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>-1</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2542,19 +2542,19 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <v>-1</v>
@@ -2563,13 +2563,13 @@
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <v>-1</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2622,7 +2622,7 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>-1</v>
@@ -2631,13 +2631,13 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
         <v>-1</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>-1</v>
@@ -2699,13 +2699,13 @@
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>-1</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2758,7 +2758,7 @@
         <v>-1</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>-1</v>
@@ -2767,13 +2767,13 @@
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>-1</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2826,7 +2826,7 @@
         <v>-1</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>-1</v>
@@ -2835,13 +2835,13 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N31">
         <v>-1</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -2894,7 +2894,7 @@
         <v>-1</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -2903,13 +2903,13 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N32">
         <v>-1</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -2962,7 +2962,7 @@
         <v>-1</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
         <v>-1</v>
@@ -2971,13 +2971,13 @@
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>-1</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3030,7 +3030,7 @@
         <v>-1</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K34">
         <v>-1</v>
@@ -3039,13 +3039,13 @@
         <v>-1</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>-1</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3098,7 +3098,7 @@
         <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K35">
         <v>-1</v>
@@ -3107,13 +3107,13 @@
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N35">
         <v>-1</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P35">
         <v>-1</v>
@@ -3166,7 +3166,7 @@
         <v>-1</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <v>-1</v>
@@ -3175,13 +3175,13 @@
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N36">
         <v>-1</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P36">
         <v>-1</v>
@@ -3234,7 +3234,7 @@
         <v>-1</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K37">
         <v>-1</v>
@@ -3243,13 +3243,13 @@
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>-1</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P37">
         <v>-1</v>
@@ -3302,7 +3302,7 @@
         <v>-1</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K38">
         <v>-1</v>
@@ -3311,13 +3311,13 @@
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N38">
         <v>-1</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P38">
         <v>-1</v>
@@ -3370,7 +3370,7 @@
         <v>-1</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K39">
         <v>-1</v>
@@ -3379,13 +3379,13 @@
         <v>-1</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N39">
         <v>-1</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P39">
         <v>-1</v>
@@ -3438,7 +3438,7 @@
         <v>-1</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K40">
         <v>-1</v>
@@ -3447,13 +3447,13 @@
         <v>-1</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N40">
         <v>-1</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P40">
         <v>-1</v>
@@ -3704,22 +3704,22 @@
         <v>33</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>89.19</v>
       </c>
       <c r="G7">
-        <v>2.7</v>
+        <v>10.81</v>
       </c>
       <c r="H7">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.109999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3736,22 +3736,22 @@
         <v>33</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>89.19</v>
       </c>
       <c r="G8">
-        <v>2.7</v>
+        <v>10.81</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.109999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +3761,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3793,56 +3793,56 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920151</v>
+        <v>19330051920148</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920157</v>
+        <v>19330051920148</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920159</v>
+        <v>19330051920148</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -3853,76 +3853,76 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920281</v>
+        <v>19330051920148</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920155</v>
+        <v>19330051920149</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920164</v>
+        <v>19330051920149</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920164</v>
+        <v>19330051920149</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -3933,56 +3933,56 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920164</v>
+        <v>19330051920149</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920164</v>
+        <v>19330051920150</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920163</v>
+        <v>19330051920150</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -3993,136 +3993,136 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920167</v>
+        <v>19330051920150</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920167</v>
+        <v>19330051920150</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920167</v>
+        <v>19330051920153</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920168</v>
+        <v>19330051920153</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920168</v>
+        <v>19330051920153</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920168</v>
+        <v>19330051920153</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920181</v>
+        <v>19330051920152</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -4133,22 +4133,2622 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
+        <v>19330051920152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19330051920152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>19330051920152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>19330051920154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>19330051920154</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>19330051920154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>19330051920154</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>19330051920276</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>19330051920276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>19330051920276</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>19330051920276</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>19330051920151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>19330051920151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>19330051920151</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>19330051920151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>19330051920157</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>19330051920157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>19330051920157</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>19330051920157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>19330051920160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>19330051920160</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>19330051920160</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>19330051920160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>19330051920158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>19330051920158</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>19330051920158</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>19330051920158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>19330051920159</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>19330051920159</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>19330051920159</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>19330051920159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>19330051920423</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>19330051920423</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>19330051920423</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>19330051920423</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>19330051920281</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>19330051920281</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>19330051920281</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>19330051920281</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>19330051920161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>19330051920161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>19330051920161</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>19330051920161</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>19330051920162</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>19330051920162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>19330051920162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>19330051920162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>19330051920155</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>19330051920155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>19330051920155</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>19330051920155</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>19330051920164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>19330051920164</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>19330051920164</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>19330051920164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>19330051920163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19330051920163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19330051920163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19330051920163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>19330051920156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19330051920156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>141</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>19330051920156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>19330051920156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>19330051920165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>19330051920165</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>19330051920165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>19330051920165</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>19330051920166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>19330051920166</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>19330051920166</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>19330051920166</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>19330051920167</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>19330051920167</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>19330051920167</v>
+      </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>19330051920167</v>
+      </c>
+      <c r="B93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>19330051920168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>19330051920168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>19330051920168</v>
+      </c>
+      <c r="B96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>19330051920168</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>19330051920170</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>19330051920170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>19330051920170</v>
+      </c>
+      <c r="B100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>19330051920170</v>
+      </c>
+      <c r="B101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>19330051920172</v>
+      </c>
+      <c r="B102" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>19330051920172</v>
+      </c>
+      <c r="B103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>19330051920172</v>
+      </c>
+      <c r="B104" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>19330051920172</v>
+      </c>
+      <c r="B105" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>19330051920173</v>
+      </c>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>19330051920173</v>
+      </c>
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="s">
+        <v>147</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>19330051920173</v>
+      </c>
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>19330051920173</v>
+      </c>
+      <c r="B109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>19330051920176</v>
+      </c>
+      <c r="B110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>19330051920176</v>
+      </c>
+      <c r="B111" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>19330051920176</v>
+      </c>
+      <c r="B112" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>19330051920176</v>
+      </c>
+      <c r="B113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>19330051920174</v>
+      </c>
+      <c r="B114" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>19330051920174</v>
+      </c>
+      <c r="B115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>19330051920174</v>
+      </c>
+      <c r="B116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>19330051920174</v>
+      </c>
+      <c r="B117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>19330051920175</v>
+      </c>
+      <c r="B118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D118" t="s">
+        <v>150</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>19330051920175</v>
+      </c>
+      <c r="B119" t="s">
+        <v>93</v>
+      </c>
+      <c r="C119" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>19330051920175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>19330051920175</v>
+      </c>
+      <c r="B121" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>19330051920178</v>
+      </c>
+      <c r="B122" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" t="s">
+        <v>151</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>19330051920178</v>
+      </c>
+      <c r="B123" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>19330051920178</v>
+      </c>
+      <c r="B124" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" t="s">
+        <v>151</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>19330051920178</v>
+      </c>
+      <c r="B125" t="s">
+        <v>94</v>
+      </c>
+      <c r="C125" t="s">
+        <v>116</v>
+      </c>
+      <c r="D125" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>19330051920179</v>
+      </c>
+      <c r="B126" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" t="s">
+        <v>77</v>
+      </c>
+      <c r="D126" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>19330051920179</v>
+      </c>
+      <c r="B127" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>19330051920179</v>
+      </c>
+      <c r="B128" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>19330051920179</v>
+      </c>
+      <c r="B129" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" t="s">
+        <v>77</v>
+      </c>
+      <c r="D129" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>19330051920181</v>
+      </c>
+      <c r="B130" t="s">
+        <v>95</v>
+      </c>
+      <c r="C130" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130" t="s">
+        <v>153</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>19330051920181</v>
+      </c>
+      <c r="B131" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" t="s">
+        <v>117</v>
+      </c>
+      <c r="D131" t="s">
+        <v>153</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>19330051920181</v>
+      </c>
+      <c r="B132" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>19330051920181</v>
+      </c>
+      <c r="B133" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" t="s">
+        <v>117</v>
+      </c>
+      <c r="D133" t="s">
+        <v>153</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>19330051920180</v>
+      </c>
+      <c r="B134" t="s">
+        <v>95</v>
+      </c>
+      <c r="C134" t="s">
+        <v>118</v>
+      </c>
+      <c r="D134" t="s">
+        <v>154</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>19330051920180</v>
+      </c>
+      <c r="B135" t="s">
+        <v>95</v>
+      </c>
+      <c r="C135" t="s">
+        <v>118</v>
+      </c>
+      <c r="D135" t="s">
+        <v>154</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>19330051920180</v>
+      </c>
+      <c r="B136" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" t="s">
+        <v>118</v>
+      </c>
+      <c r="D136" t="s">
+        <v>154</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>19330051920180</v>
+      </c>
+      <c r="B137" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" t="s">
+        <v>154</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>19330051920303</v>
+      </c>
+      <c r="B138" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" t="s">
+        <v>119</v>
+      </c>
+      <c r="D138" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>19330051920303</v>
+      </c>
+      <c r="B139" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" t="s">
+        <v>119</v>
+      </c>
+      <c r="D139" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>19330051920303</v>
+      </c>
+      <c r="B140" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" t="s">
+        <v>119</v>
+      </c>
+      <c r="D140" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>19330051920303</v>
+      </c>
+      <c r="B141" t="s">
+        <v>95</v>
+      </c>
+      <c r="C141" t="s">
+        <v>119</v>
+      </c>
+      <c r="D141" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>19330051920182</v>
+      </c>
+      <c r="B142" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D142" t="s">
+        <v>156</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>19330051920182</v>
+      </c>
+      <c r="B143" t="s">
+        <v>96</v>
+      </c>
+      <c r="C143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D143" t="s">
+        <v>156</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>19330051920182</v>
+      </c>
+      <c r="B144" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" t="s">
+        <v>120</v>
+      </c>
+      <c r="D144" t="s">
+        <v>156</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>19330051920182</v>
+      </c>
+      <c r="B145" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145" t="s">
+        <v>120</v>
+      </c>
+      <c r="D145" t="s">
+        <v>156</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
         <v>19330051920183</v>
       </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B146" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" t="s">
+        <v>121</v>
+      </c>
+      <c r="D146" t="s">
+        <v>157</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>19330051920183</v>
+      </c>
+      <c r="B147" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" t="s">
+        <v>121</v>
+      </c>
+      <c r="D147" t="s">
+        <v>157</v>
+      </c>
+      <c r="E147" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F147" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>19330051920183</v>
+      </c>
+      <c r="B148" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" t="s">
+        <v>121</v>
+      </c>
+      <c r="D148" t="s">
+        <v>157</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>19330051920183</v>
+      </c>
+      <c r="B149" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" t="s">
+        <v>121</v>
+      </c>
+      <c r="D149" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4190,64 +6790,64 @@
         <v>19330051920164</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920167</v>
+        <v>19330051920151</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920168</v>
+        <v>19330051920157</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920151</v>
+        <v>19330051920159</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4255,16 +6855,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920157</v>
+        <v>19330051920281</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4272,16 +6872,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920159</v>
+        <v>19330051920155</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4289,16 +6889,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920281</v>
+        <v>19330051920163</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4306,16 +6906,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920155</v>
+        <v>19330051920167</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4323,16 +6923,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920163</v>
+        <v>19330051920168</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4343,13 +6943,13 @@
         <v>19330051920181</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4360,13 +6960,13 @@
         <v>19330051920183</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4377,13 +6977,13 @@
         <v>19330051920148</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4394,13 +6994,13 @@
         <v>19330051920149</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4411,13 +7011,13 @@
         <v>19330051920150</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4428,13 +7028,13 @@
         <v>19330051920153</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4445,13 +7045,13 @@
         <v>19330051920152</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4462,13 +7062,13 @@
         <v>19330051920154</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4479,13 +7079,13 @@
         <v>19330051920276</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4496,13 +7096,13 @@
         <v>19330051920160</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4513,13 +7113,13 @@
         <v>19330051920158</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4530,13 +7130,13 @@
         <v>19330051920423</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4550,10 +7150,10 @@
         <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4564,13 +7164,13 @@
         <v>19330051920162</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4581,13 +7181,13 @@
         <v>19330051920156</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4598,13 +7198,13 @@
         <v>19330051920165</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4615,13 +7215,13 @@
         <v>19330051920166</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4632,13 +7232,13 @@
         <v>19330051920170</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4649,13 +7249,13 @@
         <v>19330051920172</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4666,13 +7266,13 @@
         <v>19330051920173</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4683,13 +7283,13 @@
         <v>19330051920176</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4700,13 +7300,13 @@
         <v>19330051920174</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4717,13 +7317,13 @@
         <v>19330051920175</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4734,13 +7334,13 @@
         <v>19330051920178</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4751,13 +7351,13 @@
         <v>19330051920179</v>
       </c>
       <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4768,13 +7368,13 @@
         <v>19330051920180</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4785,13 +7385,13 @@
         <v>19330051920303</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4802,13 +7402,13 @@
         <v>19330051920182</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4821,7 +7421,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4854,236 +7454,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920150</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920151</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920151</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920303</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920303</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920159</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920281</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920163</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920180</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4ALCM - Estadisticos 2020.xlsx
+++ b/grupos/4ALCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="158">
   <si>
     <t>Materia</t>
   </si>
@@ -194,13 +194,13 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
     <t>Rodríguez Román Leticia</t>
-  </si>
-  <si>
-    <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
     <t>Ángel Martínez Gerson Hermenegildo</t>
@@ -1002,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -1070,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O5">
         <v>7</v>
@@ -1138,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -1206,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -1274,7 +1274,7 @@
         <v>10</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -1342,7 +1342,7 @@
         <v>8</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O9">
         <v>9</v>
@@ -1410,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>8</v>
@@ -1478,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O11">
         <v>10</v>
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -1614,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O13">
         <v>9</v>
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>5</v>
@@ -1750,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O15">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O16">
         <v>10</v>
@@ -1886,7 +1886,7 @@
         <v>8</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O17">
         <v>8</v>
@@ -1954,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -2022,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O19">
         <v>8</v>
@@ -2090,7 +2090,7 @@
         <v>8</v>
       </c>
       <c r="N20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O20">
         <v>10</v>
@@ -2158,7 +2158,7 @@
         <v>7</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O21">
         <v>9</v>
@@ -2226,7 +2226,7 @@
         <v>10</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O22">
         <v>8</v>
@@ -2294,7 +2294,7 @@
         <v>3</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -2362,7 +2362,7 @@
         <v>8</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O24">
         <v>9</v>
@@ -2430,7 +2430,7 @@
         <v>8</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O25">
         <v>10</v>
@@ -2498,7 +2498,7 @@
         <v>3</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="O26">
         <v>3</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O27">
         <v>3</v>
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O28">
         <v>9</v>
@@ -2702,7 +2702,7 @@
         <v>10</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O29">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O30">
         <v>10</v>
@@ -2838,7 +2838,7 @@
         <v>8</v>
       </c>
       <c r="N31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O31">
         <v>7</v>
@@ -2906,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="N32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O32">
         <v>10</v>
@@ -2974,7 +2974,7 @@
         <v>10</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O33">
         <v>10</v>
@@ -3042,7 +3042,7 @@
         <v>9</v>
       </c>
       <c r="N34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O34">
         <v>10</v>
@@ -3110,7 +3110,7 @@
         <v>10</v>
       </c>
       <c r="N35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O35">
         <v>10</v>
@@ -3178,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="N36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O36">
         <v>5</v>
@@ -3246,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="N37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O37">
         <v>10</v>
@@ -3314,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="N38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O38">
         <v>9</v>
@@ -3382,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="N39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O39">
         <v>10</v>
@@ -3450,7 +3450,7 @@
         <v>5</v>
       </c>
       <c r="N40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O40">
         <v>9</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -3541,30 +3541,27 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>70.27</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>6.9</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>29.73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -3573,30 +3570,27 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>75.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>24.32</v>
-      </c>
-      <c r="H3">
-        <v>8.5</v>
+        <v>97.3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -3605,25 +3599,22 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>78.38</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>18.92</v>
-      </c>
-      <c r="H4">
-        <v>7.9</v>
+        <v>70.27</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J4">
-        <v>2.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3637,16 +3628,16 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>83.78</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="G5">
-        <v>16.22</v>
+        <v>24.32</v>
       </c>
       <c r="H5">
         <v>8.300000000000001</v>
@@ -3669,19 +3660,19 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>83.78</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="G6">
-        <v>16.22</v>
+        <v>24.32</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3701,19 +3692,19 @@
         <v>37</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>89.19</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="G7">
-        <v>10.81</v>
+        <v>13.51</v>
       </c>
       <c r="H7">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3733,19 +3724,19 @@
         <v>37</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>89.19</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="G8">
-        <v>10.81</v>
+        <v>13.51</v>
       </c>
       <c r="H8">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3761,7 +3752,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3805,7 +3796,7 @@
         <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
@@ -3825,10 +3816,10 @@
         <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3848,27 +3839,27 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920148</v>
+        <v>19330051920149</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3885,10 +3876,10 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3905,50 +3896,50 @@
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920149</v>
+        <v>19330051920150</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920149</v>
+        <v>19330051920150</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3965,67 +3956,67 @@
         <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920150</v>
+        <v>19330051920153</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920150</v>
+        <v>19330051920153</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920150</v>
+        <v>19330051920153</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
@@ -4033,59 +4024,59 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920153</v>
+        <v>19330051920152</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920153</v>
+        <v>19330051920152</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920153</v>
+        <v>19330051920152</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>60</v>
@@ -4093,119 +4084,119 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920153</v>
+        <v>19330051920154</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920152</v>
+        <v>19330051920154</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920152</v>
+        <v>19330051920154</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920152</v>
+        <v>19330051920276</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920152</v>
+        <v>19330051920276</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920154</v>
+        <v>19330051920276</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -4213,59 +4204,59 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920154</v>
+        <v>19330051920151</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920154</v>
+        <v>19330051920151</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920154</v>
+        <v>19330051920151</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -4273,99 +4264,99 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920276</v>
+        <v>19330051920157</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920276</v>
+        <v>19330051920157</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920276</v>
+        <v>19330051920157</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920276</v>
+        <v>19330051920160</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920151</v>
+        <v>19330051920160</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
@@ -4373,19 +4364,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920151</v>
+        <v>19330051920160</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>60</v>
@@ -4393,19 +4384,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920151</v>
+        <v>19330051920158</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
         <v>59</v>
@@ -4413,59 +4404,59 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920151</v>
+        <v>19330051920158</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920157</v>
+        <v>19330051920158</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920157</v>
+        <v>19330051920159</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
@@ -4473,39 +4464,39 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920157</v>
+        <v>19330051920159</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920157</v>
+        <v>19330051920159</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
         <v>59</v>
@@ -4513,39 +4504,39 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920160</v>
+        <v>19330051920423</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920160</v>
+        <v>19330051920423</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>60</v>
@@ -4553,19 +4544,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920160</v>
+        <v>19330051920423</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
         <v>58</v>
@@ -4573,59 +4564,59 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920160</v>
+        <v>19330051920281</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920158</v>
+        <v>19330051920281</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920158</v>
+        <v>19330051920281</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
         <v>59</v>
@@ -4633,99 +4624,99 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920158</v>
+        <v>19330051920161</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920158</v>
+        <v>19330051920161</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920159</v>
+        <v>19330051920161</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920159</v>
+        <v>19330051920162</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920159</v>
+        <v>19330051920162</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
         <v>58</v>
@@ -4733,79 +4724,79 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920159</v>
+        <v>19330051920162</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920423</v>
+        <v>19330051920155</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920423</v>
+        <v>19330051920155</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920423</v>
+        <v>19330051920155</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
         <v>59</v>
@@ -4813,159 +4804,159 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920423</v>
+        <v>19330051920164</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920281</v>
+        <v>19330051920164</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920281</v>
+        <v>19330051920164</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920281</v>
+        <v>19330051920163</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920281</v>
+        <v>19330051920163</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920161</v>
+        <v>19330051920163</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920161</v>
+        <v>19330051920156</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920161</v>
+        <v>19330051920156</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
         <v>59</v>
@@ -4973,59 +4964,59 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920161</v>
+        <v>19330051920156</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920162</v>
+        <v>19330051920165</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920162</v>
+        <v>19330051920165</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
         <v>58</v>
@@ -5033,39 +5024,39 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920162</v>
+        <v>19330051920165</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920162</v>
+        <v>19330051920166</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
         <v>59</v>
@@ -5073,99 +5064,99 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920155</v>
+        <v>19330051920166</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920155</v>
+        <v>19330051920166</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920155</v>
+        <v>19330051920167</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920155</v>
+        <v>19330051920167</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920164</v>
+        <v>19330051920167</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>60</v>
@@ -5173,199 +5164,199 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920164</v>
+        <v>19330051920168</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920164</v>
+        <v>19330051920168</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920164</v>
+        <v>19330051920168</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920163</v>
+        <v>19330051920170</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920163</v>
+        <v>19330051920170</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920163</v>
+        <v>19330051920170</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920163</v>
+        <v>19330051920172</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920156</v>
+        <v>19330051920172</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920156</v>
+        <v>19330051920172</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920156</v>
+        <v>19330051920173</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
         <v>59</v>
@@ -5373,19 +5364,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920156</v>
+        <v>19330051920173</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>60</v>
@@ -5393,39 +5384,39 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920165</v>
+        <v>19330051920173</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920165</v>
+        <v>19330051920176</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>60</v>
@@ -5433,79 +5424,79 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920165</v>
+        <v>19330051920176</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920165</v>
+        <v>19330051920176</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920166</v>
+        <v>19330051920174</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D86" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920166</v>
+        <v>19330051920174</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="s">
         <v>59</v>
@@ -5513,99 +5504,99 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920166</v>
+        <v>19330051920174</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D88" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920166</v>
+        <v>19330051920175</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920167</v>
+        <v>19330051920175</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
         <v>96</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920167</v>
+        <v>19330051920175</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
         <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E91" t="s">
         <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920167</v>
+        <v>19330051920178</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F92" t="s">
         <v>58</v>
@@ -5613,39 +5604,39 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920167</v>
+        <v>19330051920178</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920168</v>
+        <v>19330051920178</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" t="s">
         <v>59</v>
@@ -5653,159 +5644,159 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920168</v>
+        <v>19330051920179</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920168</v>
+        <v>19330051920179</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920168</v>
+        <v>19330051920179</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920170</v>
+        <v>19330051920181</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920170</v>
+        <v>19330051920181</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>19330051920170</v>
+        <v>19330051920181</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>19330051920170</v>
+        <v>19330051920180</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>19330051920172</v>
+        <v>19330051920180</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E102" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F102" t="s">
         <v>58</v>
@@ -5813,139 +5804,139 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>19330051920172</v>
+        <v>19330051920180</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>19330051920172</v>
+        <v>19330051920303</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>19330051920172</v>
+        <v>19330051920303</v>
       </c>
       <c r="B105" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>19330051920173</v>
+        <v>19330051920303</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>19330051920173</v>
+        <v>19330051920182</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>19330051920173</v>
+        <v>19330051920182</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C108" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E108" t="s">
         <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>19330051920173</v>
+        <v>19330051920182</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F109" t="s">
         <v>58</v>
@@ -5953,802 +5944,62 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>19330051920176</v>
+        <v>19330051920183</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C110" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>19330051920176</v>
+        <v>19330051920183</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>19330051920176</v>
+        <v>19330051920183</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920176</v>
-      </c>
-      <c r="B113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" t="s">
-        <v>114</v>
-      </c>
-      <c r="D113" t="s">
-        <v>148</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920174</v>
-      </c>
-      <c r="B114" t="s">
-        <v>93</v>
-      </c>
-      <c r="C114" t="s">
-        <v>115</v>
-      </c>
-      <c r="D114" t="s">
-        <v>149</v>
-      </c>
-      <c r="E114" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920174</v>
-      </c>
-      <c r="B115" t="s">
-        <v>93</v>
-      </c>
-      <c r="C115" t="s">
-        <v>115</v>
-      </c>
-      <c r="D115" t="s">
-        <v>149</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920174</v>
-      </c>
-      <c r="B116" t="s">
-        <v>93</v>
-      </c>
-      <c r="C116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" t="s">
-        <v>149</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920174</v>
-      </c>
-      <c r="B117" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" t="s">
-        <v>115</v>
-      </c>
-      <c r="D117" t="s">
-        <v>149</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920175</v>
-      </c>
-      <c r="B118" t="s">
-        <v>93</v>
-      </c>
-      <c r="C118" t="s">
-        <v>96</v>
-      </c>
-      <c r="D118" t="s">
-        <v>150</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920175</v>
-      </c>
-      <c r="B119" t="s">
-        <v>93</v>
-      </c>
-      <c r="C119" t="s">
-        <v>96</v>
-      </c>
-      <c r="D119" t="s">
-        <v>150</v>
-      </c>
-      <c r="E119" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920175</v>
-      </c>
-      <c r="B120" t="s">
-        <v>93</v>
-      </c>
-      <c r="C120" t="s">
-        <v>96</v>
-      </c>
-      <c r="D120" t="s">
-        <v>150</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920175</v>
-      </c>
-      <c r="B121" t="s">
-        <v>93</v>
-      </c>
-      <c r="C121" t="s">
-        <v>96</v>
-      </c>
-      <c r="D121" t="s">
-        <v>150</v>
-      </c>
-      <c r="E121" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920178</v>
-      </c>
-      <c r="B122" t="s">
-        <v>94</v>
-      </c>
-      <c r="C122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" t="s">
-        <v>151</v>
-      </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920178</v>
-      </c>
-      <c r="B123" t="s">
-        <v>94</v>
-      </c>
-      <c r="C123" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" t="s">
-        <v>151</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920178</v>
-      </c>
-      <c r="B124" t="s">
-        <v>94</v>
-      </c>
-      <c r="C124" t="s">
-        <v>116</v>
-      </c>
-      <c r="D124" t="s">
-        <v>151</v>
-      </c>
-      <c r="E124" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920178</v>
-      </c>
-      <c r="B125" t="s">
-        <v>94</v>
-      </c>
-      <c r="C125" t="s">
-        <v>116</v>
-      </c>
-      <c r="D125" t="s">
-        <v>151</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920179</v>
-      </c>
-      <c r="B126" t="s">
-        <v>95</v>
-      </c>
-      <c r="C126" t="s">
-        <v>77</v>
-      </c>
-      <c r="D126" t="s">
-        <v>152</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920179</v>
-      </c>
-      <c r="B127" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" t="s">
-        <v>77</v>
-      </c>
-      <c r="D127" t="s">
-        <v>152</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920179</v>
-      </c>
-      <c r="B128" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128" t="s">
-        <v>77</v>
-      </c>
-      <c r="D128" t="s">
-        <v>152</v>
-      </c>
-      <c r="E128" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920179</v>
-      </c>
-      <c r="B129" t="s">
-        <v>95</v>
-      </c>
-      <c r="C129" t="s">
-        <v>77</v>
-      </c>
-      <c r="D129" t="s">
-        <v>152</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920181</v>
-      </c>
-      <c r="B130" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130" t="s">
-        <v>117</v>
-      </c>
-      <c r="D130" t="s">
-        <v>153</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920181</v>
-      </c>
-      <c r="B131" t="s">
-        <v>95</v>
-      </c>
-      <c r="C131" t="s">
-        <v>117</v>
-      </c>
-      <c r="D131" t="s">
-        <v>153</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920181</v>
-      </c>
-      <c r="B132" t="s">
-        <v>95</v>
-      </c>
-      <c r="C132" t="s">
-        <v>117</v>
-      </c>
-      <c r="D132" t="s">
-        <v>153</v>
-      </c>
-      <c r="E132" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920181</v>
-      </c>
-      <c r="B133" t="s">
-        <v>95</v>
-      </c>
-      <c r="C133" t="s">
-        <v>117</v>
-      </c>
-      <c r="D133" t="s">
-        <v>153</v>
-      </c>
-      <c r="E133" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920180</v>
-      </c>
-      <c r="B134" t="s">
-        <v>95</v>
-      </c>
-      <c r="C134" t="s">
-        <v>118</v>
-      </c>
-      <c r="D134" t="s">
-        <v>154</v>
-      </c>
-      <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920180</v>
-      </c>
-      <c r="B135" t="s">
-        <v>95</v>
-      </c>
-      <c r="C135" t="s">
-        <v>118</v>
-      </c>
-      <c r="D135" t="s">
-        <v>154</v>
-      </c>
-      <c r="E135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920180</v>
-      </c>
-      <c r="B136" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" t="s">
-        <v>118</v>
-      </c>
-      <c r="D136" t="s">
-        <v>154</v>
-      </c>
-      <c r="E136" t="s">
-        <v>6</v>
-      </c>
-      <c r="F136" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920180</v>
-      </c>
-      <c r="B137" t="s">
-        <v>95</v>
-      </c>
-      <c r="C137" t="s">
-        <v>118</v>
-      </c>
-      <c r="D137" t="s">
-        <v>154</v>
-      </c>
-      <c r="E137" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920303</v>
-      </c>
-      <c r="B138" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138" t="s">
-        <v>119</v>
-      </c>
-      <c r="D138" t="s">
-        <v>155</v>
-      </c>
-      <c r="E138" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920303</v>
-      </c>
-      <c r="B139" t="s">
-        <v>95</v>
-      </c>
-      <c r="C139" t="s">
-        <v>119</v>
-      </c>
-      <c r="D139" t="s">
-        <v>155</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920303</v>
-      </c>
-      <c r="B140" t="s">
-        <v>95</v>
-      </c>
-      <c r="C140" t="s">
-        <v>119</v>
-      </c>
-      <c r="D140" t="s">
-        <v>155</v>
-      </c>
-      <c r="E140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F140" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920303</v>
-      </c>
-      <c r="B141" t="s">
-        <v>95</v>
-      </c>
-      <c r="C141" t="s">
-        <v>119</v>
-      </c>
-      <c r="D141" t="s">
-        <v>155</v>
-      </c>
-      <c r="E141" t="s">
-        <v>4</v>
-      </c>
-      <c r="F141" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920182</v>
-      </c>
-      <c r="B142" t="s">
-        <v>96</v>
-      </c>
-      <c r="C142" t="s">
-        <v>120</v>
-      </c>
-      <c r="D142" t="s">
-        <v>156</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920182</v>
-      </c>
-      <c r="B143" t="s">
-        <v>96</v>
-      </c>
-      <c r="C143" t="s">
-        <v>120</v>
-      </c>
-      <c r="D143" t="s">
-        <v>156</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920182</v>
-      </c>
-      <c r="B144" t="s">
-        <v>96</v>
-      </c>
-      <c r="C144" t="s">
-        <v>120</v>
-      </c>
-      <c r="D144" t="s">
-        <v>156</v>
-      </c>
-      <c r="E144" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920182</v>
-      </c>
-      <c r="B145" t="s">
-        <v>96</v>
-      </c>
-      <c r="C145" t="s">
-        <v>120</v>
-      </c>
-      <c r="D145" t="s">
-        <v>156</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920183</v>
-      </c>
-      <c r="B146" t="s">
-        <v>97</v>
-      </c>
-      <c r="C146" t="s">
-        <v>121</v>
-      </c>
-      <c r="D146" t="s">
-        <v>157</v>
-      </c>
-      <c r="E146" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920183</v>
-      </c>
-      <c r="B147" t="s">
-        <v>97</v>
-      </c>
-      <c r="C147" t="s">
-        <v>121</v>
-      </c>
-      <c r="D147" t="s">
-        <v>157</v>
-      </c>
-      <c r="E147" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920183</v>
-      </c>
-      <c r="B148" t="s">
-        <v>97</v>
-      </c>
-      <c r="C148" t="s">
-        <v>121</v>
-      </c>
-      <c r="D148" t="s">
-        <v>157</v>
-      </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920183</v>
-      </c>
-      <c r="B149" t="s">
-        <v>97</v>
-      </c>
-      <c r="C149" t="s">
-        <v>121</v>
-      </c>
-      <c r="D149" t="s">
-        <v>157</v>
-      </c>
-      <c r="E149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6787,631 +6038,631 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920164</v>
+        <v>19330051920148</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920151</v>
+        <v>19330051920149</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920157</v>
+        <v>19330051920150</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920159</v>
+        <v>19330051920153</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920281</v>
+        <v>19330051920152</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920155</v>
+        <v>19330051920154</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920163</v>
+        <v>19330051920276</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920167</v>
+        <v>19330051920151</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920168</v>
+        <v>19330051920157</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920181</v>
+        <v>19330051920160</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920183</v>
+        <v>19330051920158</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920148</v>
+        <v>19330051920159</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920149</v>
+        <v>19330051920423</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920150</v>
+        <v>19330051920281</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920153</v>
+        <v>19330051920161</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920152</v>
+        <v>19330051920162</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920154</v>
+        <v>19330051920155</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920276</v>
+        <v>19330051920164</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920160</v>
+        <v>19330051920163</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920158</v>
+        <v>19330051920156</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920423</v>
+        <v>19330051920165</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920161</v>
+        <v>19330051920166</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920162</v>
+        <v>19330051920167</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920156</v>
+        <v>19330051920168</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920165</v>
+        <v>19330051920170</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920166</v>
+        <v>19330051920172</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920170</v>
+        <v>19330051920173</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920172</v>
+        <v>19330051920176</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920173</v>
+        <v>19330051920174</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920176</v>
+        <v>19330051920175</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920174</v>
+        <v>19330051920178</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920175</v>
+        <v>19330051920179</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920178</v>
+        <v>19330051920181</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920179</v>
+        <v>19330051920180</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920180</v>
+        <v>19330051920303</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920303</v>
+        <v>19330051920182</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920182</v>
+        <v>19330051920183</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7451,7 +6702,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ALCM - Estadisticos 2020.xlsx
+++ b/grupos/4ALCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="158">
   <si>
     <t>Materia</t>
   </si>
@@ -194,21 +194,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Rodríguez Román Leticia</t>
+  </si>
+  <si>
+    <t>Ángel Martínez Gerson Hermenegildo</t>
+  </si>
+  <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Rodríguez Román Leticia</t>
-  </si>
-  <si>
-    <t>Ángel Martínez Gerson Hermenegildo</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
     <t>Ángel Martínez Noe Cristobal</t>
   </si>
   <si>
@@ -224,15 +224,141 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BONOLA</t>
+  </si>
+  <si>
+    <t>COUDER</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>ELIZALDE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>LOZANO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>MIXCOAC</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ONOFRE</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PALOMARES</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>IAN ISSAID</t>
+  </si>
+  <si>
+    <t>YULIANA</t>
+  </si>
+  <si>
+    <t>AYELEN</t>
+  </si>
+  <si>
+    <t>ADRIANA ISABEL</t>
+  </si>
+  <si>
+    <t>JESE YAEL</t>
+  </si>
+  <si>
+    <t>FRANCISCO EMMANUEL</t>
+  </si>
+  <si>
+    <t>JOSELIN</t>
+  </si>
+  <si>
+    <t>CINTHIA</t>
+  </si>
+  <si>
+    <t>KARLA YAMILE</t>
+  </si>
+  <si>
+    <t>ELYDEN JULYSSA</t>
+  </si>
+  <si>
+    <t>KATHERINE AZUL</t>
+  </si>
+  <si>
+    <t>ABRIL CITLALLI</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>KAROL</t>
+  </si>
+  <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>MARLENE</t>
+  </si>
+  <si>
     <t>AYOCTLE</t>
   </si>
   <si>
     <t>BALDERAS</t>
   </si>
   <si>
-    <t>BONOLA</t>
-  </si>
-  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
@@ -242,39 +368,15 @@
     <t>COYOHUA</t>
   </si>
   <si>
-    <t>COUDER</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>ELIZALDE</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>GAMEZ</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>HUERTA</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>LOZANO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
@@ -284,45 +386,21 @@
     <t>MARQUEZ</t>
   </si>
   <si>
-    <t>MEZA</t>
-  </si>
-  <si>
-    <t>MIXCOAC</t>
-  </si>
-  <si>
     <t>MORENO</t>
   </si>
   <si>
     <t>OLTEHUA</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>TEHUINTLE</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
     <t>COLOHUA</t>
   </si>
   <si>
     <t>SIERRA</t>
   </si>
   <si>
-    <t>NUBE</t>
-  </si>
-  <si>
     <t>BERUDEZ</t>
   </si>
   <si>
@@ -332,9 +410,6 @@
     <t>IXMATLAHUA</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
     <t>ESTRADA</t>
   </si>
   <si>
@@ -344,57 +419,30 @@
     <t>CARRERA</t>
   </si>
   <si>
-    <t>TETLA</t>
-  </si>
-  <si>
     <t>OFICIAL</t>
   </si>
   <si>
-    <t>RICO</t>
-  </si>
-  <si>
     <t>NIEVES</t>
   </si>
   <si>
     <t>SEGURA</t>
   </si>
   <si>
-    <t>ONOFRE</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>PEREZ</t>
   </si>
   <si>
     <t>YOPIHUA</t>
   </si>
   <si>
-    <t>PALOMARES</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
     <t>CARTEÑO</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
     <t>KARLA</t>
   </si>
   <si>
     <t>LUIS ALEJANDRO</t>
   </si>
   <si>
-    <t>IAN ISSAID</t>
-  </si>
-  <si>
     <t>EMMA NOHEMI</t>
   </si>
   <si>
@@ -404,15 +452,6 @@
     <t>MICHELL</t>
   </si>
   <si>
-    <t>YULIANA</t>
-  </si>
-  <si>
-    <t>AYELEN</t>
-  </si>
-  <si>
-    <t>ADRIANA ISABEL</t>
-  </si>
-  <si>
     <t>KARIME GUADALUPE</t>
   </si>
   <si>
@@ -428,70 +467,31 @@
     <t>MARIANA JOSELIN</t>
   </si>
   <si>
-    <t>JESE YAEL</t>
-  </si>
-  <si>
     <t>MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>FRANCISCO EMMANUEL</t>
-  </si>
-  <si>
-    <t>JOSELIN</t>
-  </si>
-  <si>
-    <t>CINTHIA</t>
-  </si>
-  <si>
     <t>JUAN MANUEL</t>
   </si>
   <si>
     <t>MARTHA</t>
   </si>
   <si>
-    <t>KARLA YAMILE</t>
-  </si>
-  <si>
-    <t>ELYDEN JULYSSA</t>
-  </si>
-  <si>
     <t>DIEGO MIGUEL</t>
   </si>
   <si>
     <t>JAXIRY JAZMIN</t>
   </si>
   <si>
-    <t>KATHERINE AZUL</t>
-  </si>
-  <si>
-    <t>ABRIL CITLALLI</t>
-  </si>
-  <si>
     <t>JOSE MANUEL</t>
   </si>
   <si>
-    <t>LIZETH</t>
-  </si>
-  <si>
     <t>YAMILET</t>
   </si>
   <si>
     <t>DANNA ARLETTE</t>
   </si>
   <si>
-    <t>KAROL</t>
-  </si>
-  <si>
-    <t>RUTH</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>ESTEFANIA</t>
-  </si>
-  <si>
-    <t>MARLENE</t>
   </si>
 </sst>
 </file>
@@ -987,16 +987,16 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -1055,16 +1055,16 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>8</v>
@@ -1170,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1200,7 +1200,7 @@
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -1259,16 +1259,16 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -1327,16 +1327,16 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -1401,10 +1401,10 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1463,16 +1463,16 @@
         <v>10</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>8</v>
@@ -1510,7 +1510,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1540,7 +1540,7 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1599,16 +1599,16 @@
         <v>9</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M13">
         <v>8</v>
@@ -1646,7 +1646,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1676,7 +1676,7 @@
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -1735,16 +1735,16 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -1803,16 +1803,16 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M16">
         <v>10</v>
@@ -1850,7 +1850,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1871,16 +1871,16 @@
         <v>9</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <v>8</v>
@@ -1939,16 +1939,16 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J18">
         <v>9</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M18">
         <v>9</v>
@@ -1986,7 +1986,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -2007,16 +2007,16 @@
         <v>8</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
         <v>8</v>
@@ -2081,10 +2081,10 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M20">
         <v>8</v>
@@ -2143,16 +2143,16 @@
         <v>9</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J21">
         <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M21">
         <v>7</v>
@@ -2190,7 +2190,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -2217,10 +2217,10 @@
         <v>9</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>10</v>
@@ -2258,7 +2258,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -2288,7 +2288,7 @@
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M23">
         <v>3</v>
@@ -2347,16 +2347,16 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -2415,16 +2415,16 @@
         <v>9</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M25">
         <v>8</v>
@@ -2462,7 +2462,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2492,7 +2492,7 @@
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>3</v>
@@ -2530,7 +2530,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2560,7 +2560,7 @@
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <v>3</v>
@@ -2619,16 +2619,16 @@
         <v>9</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J28">
         <v>10</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M28">
         <v>8</v>
@@ -2687,16 +2687,16 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J29">
         <v>10</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M29">
         <v>10</v>
@@ -2761,10 +2761,10 @@
         <v>10</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M30">
         <v>10</v>
@@ -2829,10 +2829,10 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M31">
         <v>8</v>
@@ -2891,16 +2891,16 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <v>9</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M32">
         <v>9</v>
@@ -2965,10 +2965,10 @@
         <v>10</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M33">
         <v>10</v>
@@ -3027,16 +3027,16 @@
         <v>9</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J34">
         <v>10</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M34">
         <v>9</v>
@@ -3095,16 +3095,16 @@
         <v>9</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J35">
         <v>10</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M35">
         <v>10</v>
@@ -3142,7 +3142,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -3172,7 +3172,7 @@
         <v>-1</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M36">
         <v>5</v>
@@ -3237,10 +3237,10 @@
         <v>10</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M37">
         <v>7</v>
@@ -3305,10 +3305,10 @@
         <v>10</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M38">
         <v>9</v>
@@ -3367,16 +3367,16 @@
         <v>10</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J39">
         <v>10</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M39">
         <v>10</v>
@@ -3414,7 +3414,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -3444,7 +3444,7 @@
         <v>-1</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M40">
         <v>5</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -3541,27 +3541,30 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>48.65</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>51.35</v>
+      </c>
+      <c r="H2">
+        <v>7.1</v>
       </c>
       <c r="I2">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -3570,27 +3573,30 @@
         <v>37</v>
       </c>
       <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="G3">
+        <v>24.32</v>
+      </c>
+      <c r="H3">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>36</v>
-      </c>
-      <c r="F3">
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="G3">
-        <v>97.3</v>
-      </c>
-      <c r="I3">
-        <v>37</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -3599,27 +3605,30 @@
         <v>37</v>
       </c>
       <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="G4">
+        <v>24.32</v>
+      </c>
+      <c r="H4">
+        <v>8.5</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>26</v>
-      </c>
-      <c r="F4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="G4">
-        <v>70.27</v>
-      </c>
-      <c r="I4">
-        <v>37</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -3628,30 +3637,30 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>75.68000000000001</v>
+        <v>78.38</v>
       </c>
       <c r="G5">
-        <v>24.32</v>
+        <v>18.92</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -3660,19 +3669,19 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>75.68000000000001</v>
+        <v>81.08</v>
       </c>
       <c r="G6">
-        <v>24.32</v>
+        <v>18.92</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3752,7 +3761,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3784,39 +3793,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920148</v>
+        <v>19330051920150</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920148</v>
+        <v>19330051920276</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
@@ -3824,179 +3833,179 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920148</v>
+        <v>19330051920151</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920149</v>
+        <v>19330051920151</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920149</v>
+        <v>19330051920157</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920149</v>
+        <v>19330051920157</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920150</v>
+        <v>19330051920161</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920150</v>
+        <v>19330051920155</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920150</v>
+        <v>19330051920155</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920153</v>
+        <v>19330051920164</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920153</v>
+        <v>19330051920164</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
@@ -4004,39 +4013,39 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920153</v>
+        <v>19330051920163</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
         <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>125</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920152</v>
+        <v>19330051920167</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
         <v>102</v>
       </c>
-      <c r="D14" t="s">
-        <v>126</v>
-      </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -4044,59 +4053,59 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920152</v>
+        <v>19330051920167</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
         <v>102</v>
       </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920152</v>
+        <v>19330051920168</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920154</v>
+        <v>19330051920168</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -4104,119 +4113,119 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920154</v>
+        <v>19330051920173</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920154</v>
+        <v>19330051920176</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920276</v>
+        <v>19330051920175</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920276</v>
+        <v>19330051920181</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920276</v>
+        <v>19330051920181</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920151</v>
+        <v>19330051920180</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>58</v>
@@ -4224,1782 +4233,62 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920151</v>
+        <v>19330051920303</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920151</v>
+        <v>19330051920183</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920157</v>
+        <v>19330051920183</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>19330051920157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>19330051920157</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>19330051920160</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>19330051920160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>19330051920160</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>19330051920158</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>19330051920158</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>19330051920158</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>19330051920159</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>19330051920159</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>19330051920159</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>19330051920423</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>19330051920423</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>19330051920423</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>19330051920281</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>19330051920281</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>19330051920281</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>19330051920161</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>19330051920161</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19330051920161</v>
-      </c>
-      <c r="B46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>19330051920162</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920162</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920162</v>
-      </c>
-      <c r="B49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920155</v>
-      </c>
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920155</v>
-      </c>
-      <c r="B51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920155</v>
-      </c>
-      <c r="B52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920164</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920164</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920164</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920163</v>
-      </c>
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920163</v>
-      </c>
-      <c r="B57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920156</v>
-      </c>
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920156</v>
-      </c>
-      <c r="B60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920156</v>
-      </c>
-      <c r="B61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920165</v>
-      </c>
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920165</v>
-      </c>
-      <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" t="s">
-        <v>142</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920165</v>
-      </c>
-      <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" t="s">
-        <v>142</v>
-      </c>
-      <c r="E64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920166</v>
-      </c>
-      <c r="B65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920166</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920166</v>
-      </c>
-      <c r="B67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920167</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" t="s">
-        <v>143</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920167</v>
-      </c>
-      <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920167</v>
-      </c>
-      <c r="B70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920168</v>
-      </c>
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920168</v>
-      </c>
-      <c r="B72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920168</v>
-      </c>
-      <c r="B73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920170</v>
-      </c>
-      <c r="B74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920170</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920170</v>
-      </c>
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920172</v>
-      </c>
-      <c r="B77" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E77" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920172</v>
-      </c>
-      <c r="B78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" t="s">
-        <v>146</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920172</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" t="s">
-        <v>146</v>
-      </c>
-      <c r="E79" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920173</v>
-      </c>
-      <c r="B80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" t="s">
-        <v>147</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920173</v>
-      </c>
-      <c r="B81" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" t="s">
-        <v>147</v>
-      </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920173</v>
-      </c>
-      <c r="B82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" t="s">
-        <v>147</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920176</v>
-      </c>
-      <c r="B83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" t="s">
-        <v>148</v>
-      </c>
-      <c r="E83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920176</v>
-      </c>
-      <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" t="s">
-        <v>148</v>
-      </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920176</v>
-      </c>
-      <c r="B85" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" t="s">
-        <v>148</v>
-      </c>
-      <c r="E85" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920174</v>
-      </c>
-      <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" t="s">
-        <v>149</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920174</v>
-      </c>
-      <c r="B87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" t="s">
-        <v>115</v>
-      </c>
-      <c r="D87" t="s">
-        <v>149</v>
-      </c>
-      <c r="E87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920174</v>
-      </c>
-      <c r="B88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" t="s">
-        <v>115</v>
-      </c>
-      <c r="D88" t="s">
-        <v>149</v>
-      </c>
-      <c r="E88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920175</v>
-      </c>
-      <c r="B89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" t="s">
-        <v>96</v>
-      </c>
-      <c r="D89" t="s">
-        <v>150</v>
-      </c>
-      <c r="E89" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920175</v>
-      </c>
-      <c r="B90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" t="s">
-        <v>96</v>
-      </c>
-      <c r="D90" t="s">
-        <v>150</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920175</v>
-      </c>
-      <c r="B91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D91" t="s">
-        <v>150</v>
-      </c>
-      <c r="E91" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920178</v>
-      </c>
-      <c r="B92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920178</v>
-      </c>
-      <c r="B93" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" t="s">
-        <v>116</v>
-      </c>
-      <c r="D93" t="s">
-        <v>151</v>
-      </c>
-      <c r="E93" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920178</v>
-      </c>
-      <c r="B94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" t="s">
-        <v>116</v>
-      </c>
-      <c r="D94" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920179</v>
-      </c>
-      <c r="B95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" t="s">
-        <v>152</v>
-      </c>
-      <c r="E95" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920179</v>
-      </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" t="s">
-        <v>77</v>
-      </c>
-      <c r="D96" t="s">
-        <v>152</v>
-      </c>
-      <c r="E96" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920179</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
-        <v>77</v>
-      </c>
-      <c r="D97" t="s">
-        <v>152</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920181</v>
-      </c>
-      <c r="B98" t="s">
-        <v>95</v>
-      </c>
-      <c r="C98" t="s">
-        <v>117</v>
-      </c>
-      <c r="D98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920181</v>
-      </c>
-      <c r="B99" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" t="s">
-        <v>117</v>
-      </c>
-      <c r="D99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920181</v>
-      </c>
-      <c r="B100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" t="s">
-        <v>153</v>
-      </c>
-      <c r="E100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920180</v>
-      </c>
-      <c r="B101" t="s">
-        <v>95</v>
-      </c>
-      <c r="C101" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" t="s">
-        <v>154</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920180</v>
-      </c>
-      <c r="B102" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" t="s">
-        <v>118</v>
-      </c>
-      <c r="D102" t="s">
-        <v>154</v>
-      </c>
-      <c r="E102" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920180</v>
-      </c>
-      <c r="B103" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" t="s">
-        <v>118</v>
-      </c>
-      <c r="D103" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920303</v>
-      </c>
-      <c r="B104" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" t="s">
-        <v>119</v>
-      </c>
-      <c r="D104" t="s">
-        <v>155</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920303</v>
-      </c>
-      <c r="B105" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" t="s">
-        <v>119</v>
-      </c>
-      <c r="D105" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920303</v>
-      </c>
-      <c r="B106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" t="s">
-        <v>155</v>
-      </c>
-      <c r="E106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920182</v>
-      </c>
-      <c r="B107" t="s">
-        <v>96</v>
-      </c>
-      <c r="C107" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" t="s">
-        <v>156</v>
-      </c>
-      <c r="E107" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920182</v>
-      </c>
-      <c r="B108" t="s">
-        <v>96</v>
-      </c>
-      <c r="C108" t="s">
-        <v>120</v>
-      </c>
-      <c r="D108" t="s">
-        <v>156</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920182</v>
-      </c>
-      <c r="B109" t="s">
-        <v>96</v>
-      </c>
-      <c r="C109" t="s">
-        <v>120</v>
-      </c>
-      <c r="D109" t="s">
-        <v>156</v>
-      </c>
-      <c r="E109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920183</v>
-      </c>
-      <c r="B110" t="s">
-        <v>97</v>
-      </c>
-      <c r="C110" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" t="s">
-        <v>157</v>
-      </c>
-      <c r="E110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920183</v>
-      </c>
-      <c r="B111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" t="s">
-        <v>121</v>
-      </c>
-      <c r="D111" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920183</v>
-      </c>
-      <c r="B112" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6038,631 +4327,631 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920148</v>
+        <v>19330051920151</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920149</v>
+        <v>19330051920157</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920150</v>
+        <v>19330051920155</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920153</v>
+        <v>19330051920164</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920152</v>
+        <v>19330051920167</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
         <v>102</v>
       </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920154</v>
+        <v>19330051920168</v>
       </c>
       <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920276</v>
+        <v>19330051920181</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920151</v>
+        <v>19330051920183</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920157</v>
+        <v>19330051920150</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920160</v>
+        <v>19330051920276</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920158</v>
+        <v>19330051920161</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920159</v>
+        <v>19330051920163</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920423</v>
+        <v>19330051920173</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920281</v>
+        <v>19330051920176</v>
       </c>
       <c r="B15" t="s">
         <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920161</v>
+        <v>19330051920175</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920162</v>
+        <v>19330051920180</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920155</v>
+        <v>19330051920303</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920164</v>
+        <v>19330051920148</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>139</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920163</v>
+        <v>19330051920149</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
         <v>140</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920156</v>
+        <v>19330051920153</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
         <v>141</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920165</v>
+        <v>19330051920152</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
         <v>142</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920166</v>
+        <v>19330051920154</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920167</v>
+        <v>19330051920160</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920168</v>
+        <v>19330051920158</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920170</v>
+        <v>19330051920159</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920172</v>
+        <v>19330051920423</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920173</v>
+        <v>19330051920281</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920176</v>
+        <v>19330051920162</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920174</v>
+        <v>19330051920156</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920175</v>
+        <v>19330051920165</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920178</v>
+        <v>19330051920166</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920179</v>
+        <v>19330051920170</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>152</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920181</v>
+        <v>19330051920172</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920180</v>
+        <v>19330051920174</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920303</v>
+        <v>19330051920178</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920182</v>
+        <v>19330051920179</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
         <v>156</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920183</v>
+        <v>19330051920182</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
         <v>157</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6672,7 +4961,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6705,6 +4994,259 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4ALCM - Estadisticos 2020.xlsx
+++ b/grupos/4ALCM - Estadisticos 2020.xlsx
@@ -3219,7 +3219,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>8</v>
